--- a/src/templates/AltiumBOMTemplate.xlsx
+++ b/src/templates/AltiumBOMTemplate.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan Castle\Documents\git_repos\podiv-altium\src\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E632B27-A3BE-415F-A2EE-0F34E9D506ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AEB5E96-C247-4A3A-A514-F37884C3FD25}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8778" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Approved</t>
   </si>
@@ -65,12 +66,6 @@
     <t>Production Quantity:</t>
   </si>
   <si>
-    <t>Column=Supplier 1</t>
-  </si>
-  <si>
-    <t>Column=Supplier Part Number 1</t>
-  </si>
-  <si>
     <t>Currency</t>
   </si>
   <si>
@@ -80,18 +75,6 @@
     <t>Column=Manufacturer Part Number</t>
   </si>
   <si>
-    <t>Supplier 1 Subtotal</t>
-  </si>
-  <si>
-    <t>Supplier 2 Subtotal</t>
-  </si>
-  <si>
-    <t>Supplier Unit Price 2</t>
-  </si>
-  <si>
-    <t>Column=Pricing 1</t>
-  </si>
-  <si>
     <t>Field=ProductionQuantity</t>
   </si>
   <si>
@@ -113,50 +96,27 @@
     <t>Field=ReportTime</t>
   </si>
   <si>
-    <t>Supplier Unit Price 1</t>
-  </si>
-  <si>
     <t>Reference</t>
   </si>
   <si>
     <t>Field=Reference</t>
   </si>
   <si>
-    <t>Column=Supplier 2</t>
-  </si>
-  <si>
-    <t>Column=Supplier Part Number 2</t>
-  </si>
-  <si>
-    <t>Column=Pricing 2</t>
-  </si>
-  <si>
-    <t>Assem Unit Price 2</t>
-  </si>
-  <si>
-    <t>Assem Subtotal</t>
-  </si>
-  <si>
-    <t>Column=Assem</t>
-  </si>
-  <si>
-    <t>Column=Assem Part Num</t>
-  </si>
-  <si>
-    <t>Column=Assem Pricing</t>
+    <t>Column=Digikey P/N</t>
+  </si>
+  <si>
+    <t>Column=Digikey Part Number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-C09]dd\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
-    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.000_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -214,17 +174,12 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -249,14 +204,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="23">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -426,50 +375,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -507,11 +412,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -643,51 +547,13 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -697,13 +563,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -712,13 +575,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -755,11 +611,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -768,27 +624,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -799,8 +634,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1565,10 +1399,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -1581,149 +1415,74 @@
     <col min="6" max="6" width="17.71875" style="42" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.5546875" style="4" customWidth="1"/>
     <col min="8" max="8" width="15.44140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="15" style="42" customWidth="1"/>
-    <col min="10" max="10" width="16.44140625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="17.44140625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="28.44140625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="15.83203125" style="4" customWidth="1"/>
-    <col min="14" max="14" width="17.71875" style="4" customWidth="1"/>
-    <col min="15" max="15" width="16.44140625" style="4" customWidth="1"/>
-    <col min="16" max="16" width="18.71875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="17" style="4" customWidth="1"/>
-    <col min="18" max="21" width="9.1640625" style="4" customWidth="1"/>
-    <col min="22" max="16384" width="9.1640625" style="4"/>
+    <col min="9" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="79" customFormat="1" ht="12.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="80"/>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-    </row>
-    <row r="2" spans="1:21" s="79" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="95" t="s">
+    <row r="1" spans="1:8" s="64" customFormat="1" ht="12.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="65"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+    </row>
+    <row r="2" spans="1:8" s="64" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="78"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="63"/>
       <c r="E2" s="43"/>
       <c r="F2" s="43"/>
       <c r="G2" s="43"/>
       <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-    </row>
-    <row r="3" spans="1:21" s="79" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:8" s="64" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="13"/>
-      <c r="C3" s="60" t="s">
-        <v>23</v>
+      <c r="C3" s="49" t="s">
+        <v>17</v>
       </c>
       <c r="D3" s="35"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-    </row>
-    <row r="4" spans="1:21" s="79" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:8" s="64" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="13"/>
-      <c r="C4" s="61" t="s">
-        <v>24</v>
+      <c r="C4" s="50" t="s">
+        <v>18</v>
       </c>
       <c r="D4" s="36"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-    </row>
-    <row r="5" spans="1:21" s="79" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:8" s="64" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="33" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-    </row>
-    <row r="6" spans="1:21" s="79" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:8" s="64" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="32"/>
       <c r="B6" s="33"/>
       <c r="C6" s="11"/>
@@ -1732,81 +1491,42 @@
       <c r="F6" s="3"/>
       <c r="G6" s="34"/>
       <c r="H6" s="34"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34"/>
-      <c r="U6" s="34"/>
-    </row>
-    <row r="7" spans="1:21" s="79" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="1:8" s="64" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="51"/>
+      <c r="F7" s="47"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-    </row>
-    <row r="8" spans="1:21" s="79" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="1:8" s="64" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="8">
         <f ca="1">TODAY()</f>
-        <v>43372</v>
+        <v>43458</v>
       </c>
       <c r="C8" s="9">
         <f ca="1">NOW()</f>
-        <v>43372.011642592595</v>
+        <v>43458.839315625002</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-    </row>
-    <row r="9" spans="1:21" s="79" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="1:8" s="64" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="6"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -1815,26 +1535,13 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-    </row>
-    <row r="10" spans="1:21" s="79" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="1:8" s="64" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="59" t="s">
-        <v>21</v>
+      <c r="B10" s="48" t="s">
+        <v>15</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="7"/>
@@ -1842,26 +1549,13 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-    </row>
-    <row r="11" spans="1:21" s="79" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="1:8" s="64" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="7"/>
@@ -1869,21 +1563,8 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-    </row>
-    <row r="12" spans="1:21" s="79" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="1:8" s="64" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -1892,199 +1573,83 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-    </row>
-    <row r="13" spans="1:21" s="93" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="83" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="84" t="s">
+    </row>
+    <row r="13" spans="1:8" s="71" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="85" t="s">
+      <c r="C13" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="85" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="83" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="83" t="s">
+      <c r="D13" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="84" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="83" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="86" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="83" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="83" t="s">
-        <v>17</v>
-      </c>
-      <c r="L13" s="87" t="s">
-        <v>31</v>
-      </c>
-      <c r="M13" s="83" t="s">
-        <v>32</v>
-      </c>
-      <c r="N13" s="83" t="s">
-        <v>33</v>
-      </c>
-      <c r="O13" s="84" t="s">
-        <v>19</v>
-      </c>
-      <c r="P13" s="83" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q13" s="87" t="s">
-        <v>36</v>
-      </c>
-      <c r="R13" s="83" t="s">
-        <v>37</v>
-      </c>
-      <c r="S13" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="T13" s="84" t="s">
-        <v>34</v>
-      </c>
-      <c r="U13" s="84" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="68">
-        <f>F14*J14</f>
-        <v>0</v>
-      </c>
-      <c r="M14" s="53"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="89"/>
-      <c r="R14" s="53"/>
-      <c r="S14" s="57"/>
-      <c r="T14" s="58"/>
-      <c r="U14" s="91"/>
-    </row>
-    <row r="15" spans="1:21" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G13" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="68" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="54"/>
+    </row>
+    <row r="15" spans="1:8" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="14" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
-      <c r="F15" s="46"/>
+      <c r="F15" s="45"/>
       <c r="G15" s="14"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="68">
-        <f>F15*J15</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="53"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="89"/>
-      <c r="R15" s="53"/>
-      <c r="S15" s="57"/>
-      <c r="T15" s="58"/>
-      <c r="U15" s="91"/>
-    </row>
-    <row r="16" spans="1:21" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H15" s="51"/>
+    </row>
+    <row r="16" spans="1:8" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="14" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
-      <c r="F16" s="46"/>
+      <c r="F16" s="45"/>
       <c r="G16" s="14"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="68">
-        <f>F16*J16</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="53"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="58"/>
-      <c r="P16" s="89"/>
-      <c r="R16" s="53"/>
-      <c r="S16" s="57"/>
-      <c r="T16" s="58"/>
-      <c r="U16" s="91"/>
-    </row>
-    <row r="17" spans="1:21" s="79" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="70"/>
+      <c r="H16" s="52"/>
+    </row>
+    <row r="17" spans="1:8" s="64" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="55"/>
       <c r="B17" s="39"/>
       <c r="C17" s="39"/>
       <c r="D17" s="40"/>
       <c r="E17" s="40"/>
-      <c r="F17" s="47">
+      <c r="F17" s="46">
         <f>SUM(F14:F16)</f>
         <v>0</v>
       </c>
       <c r="G17" s="40"/>
       <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="88">
-        <f>SUM(K14:K16)</f>
-        <v>0</v>
-      </c>
-      <c r="L17" s="54"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="90">
-        <f>SUM(P14:P16)</f>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="54"/>
-      <c r="R17" s="55"/>
-      <c r="S17" s="55"/>
-      <c r="T17" s="56"/>
-      <c r="U17" s="92">
-        <f>SUM(U14:U16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" s="94" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="18" spans="1:8" s="72" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="22" t="s">
         <v>0</v>
       </c>
@@ -2097,21 +1662,8 @@
       <c r="F18" s="18"/>
       <c r="G18" s="38"/>
       <c r="H18" s="38"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="52"/>
-      <c r="P18"/>
-      <c r="Q18"/>
-      <c r="R18"/>
-      <c r="S18"/>
-      <c r="T18"/>
-      <c r="U18"/>
-    </row>
-    <row r="19" spans="1:21" s="94" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="19" spans="1:8" s="72" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="25"/>
       <c r="B19" s="26"/>
       <c r="C19" s="27"/>
@@ -2120,21 +1672,8 @@
       <c r="F19" s="15"/>
       <c r="G19" s="41"/>
       <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="49"/>
-      <c r="P19"/>
-      <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19"/>
-      <c r="T19"/>
-      <c r="U19"/>
-    </row>
-    <row r="20" spans="1:21" s="94" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="20" spans="1:8" s="72" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="23"/>
       <c r="B20" s="19"/>
       <c r="C20" s="20"/>
@@ -2143,21 +1682,8 @@
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="49"/>
-      <c r="P20"/>
-      <c r="Q20"/>
-      <c r="R20"/>
-      <c r="S20"/>
-      <c r="T20"/>
-      <c r="U20"/>
-    </row>
-    <row r="21" spans="1:21" s="94" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="21" spans="1:8" s="72" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="23"/>
       <c r="B21" s="19"/>
       <c r="C21" s="20"/>
@@ -2166,21 +1692,8 @@
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="49"/>
-      <c r="P21"/>
-      <c r="Q21"/>
-      <c r="R21"/>
-      <c r="S21"/>
-      <c r="T21"/>
-      <c r="U21"/>
-    </row>
-    <row r="22" spans="1:21" s="94" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="22" spans="1:8" s="72" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="23"/>
       <c r="B22" s="19"/>
       <c r="C22" s="20"/>
@@ -2189,21 +1702,8 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="49"/>
-      <c r="P22"/>
-      <c r="Q22"/>
-      <c r="R22"/>
-      <c r="S22"/>
-      <c r="T22"/>
-      <c r="U22"/>
-    </row>
-    <row r="23" spans="1:21" s="94" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="23" spans="1:8" s="72" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="24"/>
       <c r="B23" s="29"/>
       <c r="C23" s="30"/>
@@ -2212,21 +1712,8 @@
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
       <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="50"/>
-      <c r="P23"/>
-      <c r="Q23"/>
-      <c r="R23"/>
-      <c r="S23"/>
-      <c r="T23"/>
-      <c r="U23"/>
-    </row>
-    <row r="24" spans="1:21" s="94" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="24" spans="1:8" s="72" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="24"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
@@ -2235,65 +1722,26 @@
       <c r="F24" s="15"/>
       <c r="G24" s="18"/>
       <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="48"/>
-      <c r="P24"/>
-      <c r="Q24"/>
-      <c r="R24"/>
-      <c r="S24"/>
-      <c r="T24"/>
-      <c r="U24"/>
-    </row>
-    <row r="25" spans="1:21" s="94" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="71"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="72"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="73"/>
-      <c r="N25" s="73"/>
-      <c r="O25" s="73"/>
-      <c r="P25" s="73"/>
-      <c r="Q25" s="73"/>
-      <c r="R25" s="73"/>
-      <c r="S25" s="73"/>
-      <c r="T25" s="73"/>
-      <c r="U25" s="73"/>
-    </row>
-    <row r="26" spans="1:21" s="94" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="74"/>
-      <c r="B26" s="75"/>
-      <c r="C26" s="75"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="76"/>
-      <c r="M26" s="76"/>
-      <c r="N26" s="76"/>
-      <c r="O26" s="76"/>
-      <c r="P26" s="76"/>
-      <c r="Q26" s="76"/>
-      <c r="R26" s="76"/>
-      <c r="S26" s="76"/>
-      <c r="T26" s="76"/>
-      <c r="U26" s="76"/>
+    </row>
+    <row r="25" spans="1:8" s="72" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="56"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+    </row>
+    <row r="26" spans="1:8" s="72" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="59"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="1">
